--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220704.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 09:37:38</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 11:07:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220704.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225004.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 11:07:27</t>
+    <t>Informação extraída do SIGBM: 04/12/2022 - 11:50:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225004.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 04/12/2022 - 11:50:41</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 12:03:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 12:03:43</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 12:26:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 12:26:12</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 12:37:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 12:37:34</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 12:46:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 12:46:23</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 12:55:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225505.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 12:55:07</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 01:10:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 01:10:12</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 01:33:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 01:33:56</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 01:47:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 01:47:03</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 01:55:58</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225505.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 01:55:58</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 02:10:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 02:10:16</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 02:27:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 02:27:12</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 02:37:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 02:37:07</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 02:45:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224505.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 02:45:26</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 02:54:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 02:54:26</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 03:03:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 03:03:25</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 03:30:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 03:30:29</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 03:44:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 03:44:01</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 03:53:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 03:53:03</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 04:02:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 04:02:28</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 04:20:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 04:20:40</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 04:30:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 04:30:22</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 04:39:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 04:39:22</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 04:48:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 04:48:32</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 04:57:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 04:57:31</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 05:16:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 05:16:54</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 05:36:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 05:36:55</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 05:48:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 05:48:18</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 05:57:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 05:57:03</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 06:12:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 06:12:37</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 06:29:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 06:29:11</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 06:39:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 06:39:00</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 06:47:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 06:47:04</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 06:56:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 06:56:14</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 07:12:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 07:12:24</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 07:33:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 07:33:06</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 07:44:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 07:44:27</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 07:53:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 07:53:29</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 08:01:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 08:01:43</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 08:18:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 08:18:43</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 08:28:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 08:28:31</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 08:38:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 08:38:13</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 08:46:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 08:46:35</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 08:55:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225505.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 08:55:30</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 09:15:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221505.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 09:15:21</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 09:53:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221505.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 09:53:13</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 10:15:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221505.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 10:15:30</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 10:34:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 10:34:48</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 10:44:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 10:44:36</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 10:53:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 10:53:16</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 11:02:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 11:02:12</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 11:21:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 11:21:52</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 11:32:57</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 11:32:57</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 11:42:27</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 11:42:27</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 11:51:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 11:51:24</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 12:00:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 12:00:20</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 12:20:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 12:20:02</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 12:34:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 12:34:07</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 12:44:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 12:44:30</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 12:53:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 12:53:45</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 01:02:01</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -6923,7 +6923,7 @@
     <t>-43°43'39.215"</t>
   </si>
   <si>
-    <t>10.373.355,58</t>
+    <t>10.406.202,61</t>
   </si>
   <si>
     <t>Conterpa</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 01:02:01</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 01:31:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 01:31:59</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 01:52:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 01:52:17</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 02:01:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 02:01:24</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 02:18:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 02:49:28</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 02:58:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 02:58:29</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 03:18:13</t>
   </si>
   <si>
     <t>ID Barragem</t>
@@ -17080,7 +17080,7 @@
         <v>368</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>274</v>
+        <v>58</v>
       </c>
       <c r="K72" s="0">
         <v>11.69</v>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 03:18:13</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 03:36:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 03:36:18</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 03:47:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 03:47:46</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 03:56:37</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 03:56:37</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 04:09:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 04:09:55</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 04:22:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 04:22:16</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 04:31:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 04:31:12</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 04:40:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 04:40:20</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 04:49:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 04:49:08</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 04:58:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 04:58:15</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 05:14:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 05:14:46</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 05:30:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 05:30:41</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 05:40:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224005.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224905.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 05:40:21</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 05:49:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224905.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 05:49:17</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 05:58:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 05:58:16</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 06:13:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222705.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 06:13:43</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 06:27:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222705.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223805.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 06:27:14</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 06:38:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223805.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224605.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 06:38:15</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 06:46:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224605.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 06:46:04</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 06:54:33</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 06:54:33</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 07:04:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 07:04:00</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 07:24:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223405.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 07:24:22</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 07:34:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223405.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224305.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 07:34:53</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 07:43:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224305.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 07:43:34</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 07:52:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 07:52:45</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 08:01:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20220105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 08:01:30</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 08:22:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20222205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 08:22:10</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 08:32:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224205.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 08:32:52</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 08:42:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224205.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225105.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 08:42:26</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 08:51:21</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-12-05.xlsx
+++ b/sigbm_download_2022-12-05.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225105.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20220005.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
   <si>
-    <t>Informação extraída do SIGBM: 05/12/2022 - 08:51:21</t>
+    <t>Informação extraída do SIGBM: 05/12/2022 - 09:00:26</t>
   </si>
   <si>
     <t>ID Barragem</t>
